--- a/data/pca/factorExposure/factorExposure_2012-01-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01733041980111041</v>
+        <v>0.01631825717912959</v>
       </c>
       <c r="C2">
-        <v>-0.03176886838854471</v>
+        <v>0.02656971089007758</v>
       </c>
       <c r="D2">
-        <v>-0.01521936706128952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01344409829435837</v>
+      </c>
+      <c r="E2">
+        <v>0.01314353872375953</v>
+      </c>
+      <c r="F2">
+        <v>-0.0149083961627494</v>
+      </c>
+      <c r="G2">
+        <v>0.01107299866741964</v>
+      </c>
+      <c r="H2">
+        <v>-0.05047986606249254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07390513583328669</v>
+        <v>0.08770628758994493</v>
       </c>
       <c r="C4">
-        <v>-0.05329147431897808</v>
+        <v>0.04130732246528138</v>
       </c>
       <c r="D4">
-        <v>-0.08177404610759363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06603908150863468</v>
+      </c>
+      <c r="E4">
+        <v>0.008244251836084161</v>
+      </c>
+      <c r="F4">
+        <v>-0.03715289139847922</v>
+      </c>
+      <c r="G4">
+        <v>0.003328445963043617</v>
+      </c>
+      <c r="H4">
+        <v>0.03826149592038289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1093648075310549</v>
+        <v>0.1196063835561727</v>
       </c>
       <c r="C6">
-        <v>-0.05039106294540168</v>
+        <v>0.03505363902822774</v>
       </c>
       <c r="D6">
-        <v>-0.005483208615098595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01317259580399185</v>
+      </c>
+      <c r="E6">
+        <v>-0.02240278236675868</v>
+      </c>
+      <c r="F6">
+        <v>-0.05411313935342957</v>
+      </c>
+      <c r="G6">
+        <v>0.03639637743632383</v>
+      </c>
+      <c r="H6">
+        <v>-0.1172661919457802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05306104169422856</v>
+        <v>0.06251822980668045</v>
       </c>
       <c r="C7">
-        <v>-0.02449795091905935</v>
+        <v>0.01492452958288718</v>
       </c>
       <c r="D7">
-        <v>-0.04131917458005965</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04907209492016933</v>
+      </c>
+      <c r="E7">
+        <v>0.0382325681355607</v>
+      </c>
+      <c r="F7">
+        <v>-0.03285104804735178</v>
+      </c>
+      <c r="G7">
+        <v>-0.0340974803365611</v>
+      </c>
+      <c r="H7">
+        <v>0.01182088547694742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04016665121405198</v>
+        <v>0.04130710817868356</v>
       </c>
       <c r="C8">
-        <v>-0.01419155236687858</v>
+        <v>0.01027492240659072</v>
       </c>
       <c r="D8">
-        <v>-0.06224236705257827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02620841896986765</v>
+      </c>
+      <c r="E8">
+        <v>0.02012672361287848</v>
+      </c>
+      <c r="F8">
+        <v>-0.05928408368388274</v>
+      </c>
+      <c r="G8">
+        <v>0.05241038924979986</v>
+      </c>
+      <c r="H8">
+        <v>0.002767207614735735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06872891591478404</v>
+        <v>0.07923268006414529</v>
       </c>
       <c r="C9">
-        <v>-0.03981094168605639</v>
+        <v>0.0280562911544854</v>
       </c>
       <c r="D9">
-        <v>-0.07200025923939543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06331258199021655</v>
+      </c>
+      <c r="E9">
+        <v>0.02873717454676314</v>
+      </c>
+      <c r="F9">
+        <v>-0.03696705106791771</v>
+      </c>
+      <c r="G9">
+        <v>0.008821659277219174</v>
+      </c>
+      <c r="H9">
+        <v>0.05465815263440812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03110668672222412</v>
+        <v>0.03532441042690215</v>
       </c>
       <c r="C10">
-        <v>-0.02456597057339682</v>
+        <v>0.04213186003610073</v>
       </c>
       <c r="D10">
-        <v>0.1685599382899767</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1710005857647084</v>
+      </c>
+      <c r="E10">
+        <v>0.03472633912207639</v>
+      </c>
+      <c r="F10">
+        <v>-0.04988522585314618</v>
+      </c>
+      <c r="G10">
+        <v>-0.02287576668170496</v>
+      </c>
+      <c r="H10">
+        <v>-0.03329138588645438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07302556004323327</v>
+        <v>0.07717538858946038</v>
       </c>
       <c r="C11">
-        <v>-0.04322439860054653</v>
+        <v>0.02530979730852164</v>
       </c>
       <c r="D11">
-        <v>-0.05750079288546176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06278348518670483</v>
+      </c>
+      <c r="E11">
+        <v>-0.005841714246809077</v>
+      </c>
+      <c r="F11">
+        <v>-0.02962653805774112</v>
+      </c>
+      <c r="G11">
+        <v>0.001700636805837281</v>
+      </c>
+      <c r="H11">
+        <v>0.09305992838237497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06087841511773465</v>
+        <v>0.06938495500642389</v>
       </c>
       <c r="C12">
-        <v>-0.05163977504298296</v>
+        <v>0.0368593753321507</v>
       </c>
       <c r="D12">
-        <v>-0.04830245547815556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04872096479185708</v>
+      </c>
+      <c r="E12">
+        <v>0.01098757981174667</v>
+      </c>
+      <c r="F12">
+        <v>-0.02196056055683626</v>
+      </c>
+      <c r="G12">
+        <v>0.003326092929522245</v>
+      </c>
+      <c r="H12">
+        <v>0.04582867906562553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06253836437524021</v>
+        <v>0.06578068944207044</v>
       </c>
       <c r="C13">
-        <v>-0.03237412864955406</v>
+        <v>0.01950986027279724</v>
       </c>
       <c r="D13">
-        <v>-0.05907375495037488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04146537789793981</v>
+      </c>
+      <c r="E13">
+        <v>0.01171075678400257</v>
+      </c>
+      <c r="F13">
+        <v>-0.007644439998931913</v>
+      </c>
+      <c r="G13">
+        <v>-0.006273337691746587</v>
+      </c>
+      <c r="H13">
+        <v>0.05160652985458017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03299623886259603</v>
+        <v>0.04026505874993301</v>
       </c>
       <c r="C14">
-        <v>-0.03077503084997057</v>
+        <v>0.02831452251822963</v>
       </c>
       <c r="D14">
-        <v>-0.003899370670012122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01085694921532135</v>
+      </c>
+      <c r="E14">
+        <v>0.03151161322859861</v>
+      </c>
+      <c r="F14">
+        <v>-0.01487108038503245</v>
+      </c>
+      <c r="G14">
+        <v>0.008613868775248773</v>
+      </c>
+      <c r="H14">
+        <v>0.06082248329152627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04068515981618433</v>
+        <v>0.04025271120486667</v>
       </c>
       <c r="C15">
-        <v>-0.008935283227778271</v>
+        <v>0.00332043777120561</v>
       </c>
       <c r="D15">
-        <v>-0.01943934961677889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006174044140565598</v>
+      </c>
+      <c r="E15">
+        <v>0.03537082883315438</v>
+      </c>
+      <c r="F15">
+        <v>-0.0007487198118973686</v>
+      </c>
+      <c r="G15">
+        <v>0.02468278253696902</v>
+      </c>
+      <c r="H15">
+        <v>0.03324239880217902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06195706651382101</v>
+        <v>0.07154268939123885</v>
       </c>
       <c r="C16">
-        <v>-0.04077846940694083</v>
+        <v>0.02735074998421248</v>
       </c>
       <c r="D16">
-        <v>-0.04814630363762065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0610412639100341</v>
+      </c>
+      <c r="E16">
+        <v>0.003316393964167591</v>
+      </c>
+      <c r="F16">
+        <v>-0.02865798043174052</v>
+      </c>
+      <c r="G16">
+        <v>-0.001366165741818998</v>
+      </c>
+      <c r="H16">
+        <v>0.06218083841926882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06214195981007276</v>
+        <v>0.06320466044012781</v>
       </c>
       <c r="C20">
-        <v>-0.02391067097085836</v>
+        <v>0.009904589306243718</v>
       </c>
       <c r="D20">
-        <v>-0.05248522054744578</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03947143018677686</v>
+      </c>
+      <c r="E20">
+        <v>0.01746577751826295</v>
+      </c>
+      <c r="F20">
+        <v>-0.0287118731526834</v>
+      </c>
+      <c r="G20">
+        <v>0.01440580190802728</v>
+      </c>
+      <c r="H20">
+        <v>0.053058870635975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02580103731629261</v>
+        <v>0.02584309756725143</v>
       </c>
       <c r="C21">
-        <v>0.002914946518131002</v>
+        <v>-0.00964132963461075</v>
       </c>
       <c r="D21">
-        <v>-0.02816414955859171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02531260382352695</v>
+      </c>
+      <c r="E21">
+        <v>0.04448848353815696</v>
+      </c>
+      <c r="F21">
+        <v>0.01581162948414555</v>
+      </c>
+      <c r="G21">
+        <v>0.01493866111738888</v>
+      </c>
+      <c r="H21">
+        <v>-0.05553367361853781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07849877572922098</v>
+        <v>0.07219820793899313</v>
       </c>
       <c r="C22">
-        <v>-0.05931453885985125</v>
+        <v>0.03872254265610329</v>
       </c>
       <c r="D22">
-        <v>-0.1219579039726571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0849389022088399</v>
+      </c>
+      <c r="E22">
+        <v>0.6047335023313766</v>
+      </c>
+      <c r="F22">
+        <v>0.1366744734047335</v>
+      </c>
+      <c r="G22">
+        <v>-0.06975775297808792</v>
+      </c>
+      <c r="H22">
+        <v>-0.1735284877689334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0794796853390717</v>
+        <v>0.07304783359979887</v>
       </c>
       <c r="C23">
-        <v>-0.05805458535230432</v>
+        <v>0.03728737869127746</v>
       </c>
       <c r="D23">
-        <v>-0.1233301930801956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08567264842918698</v>
+      </c>
+      <c r="E23">
+        <v>0.6037887137055454</v>
+      </c>
+      <c r="F23">
+        <v>0.1355612603274289</v>
+      </c>
+      <c r="G23">
+        <v>-0.06893404020248561</v>
+      </c>
+      <c r="H23">
+        <v>-0.1702607321292124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0746168036259347</v>
+        <v>0.08075912578398313</v>
       </c>
       <c r="C24">
-        <v>-0.05098378634206523</v>
+        <v>0.03381437014793943</v>
       </c>
       <c r="D24">
-        <v>-0.05960115814781388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06109868004310012</v>
+      </c>
+      <c r="E24">
+        <v>0.01601026029343938</v>
+      </c>
+      <c r="F24">
+        <v>-0.03803037158545005</v>
+      </c>
+      <c r="G24">
+        <v>0.01358037318532002</v>
+      </c>
+      <c r="H24">
+        <v>0.05304800244657382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07443673741595735</v>
+        <v>0.07909562681046424</v>
       </c>
       <c r="C25">
-        <v>-0.05439851561149923</v>
+        <v>0.03696104098574483</v>
       </c>
       <c r="D25">
-        <v>-0.06705213681129729</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05316226354469234</v>
+      </c>
+      <c r="E25">
+        <v>0.01904935956095432</v>
+      </c>
+      <c r="F25">
+        <v>-0.03005550193120021</v>
+      </c>
+      <c r="G25">
+        <v>0.02028705252835715</v>
+      </c>
+      <c r="H25">
+        <v>0.06041806549025965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04599003962299617</v>
+        <v>0.04785284046689239</v>
       </c>
       <c r="C26">
-        <v>-0.009187265112559467</v>
+        <v>0.001744334376337001</v>
       </c>
       <c r="D26">
-        <v>-0.01233263325094115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01715872308113224</v>
+      </c>
+      <c r="E26">
+        <v>0.04294262043775403</v>
+      </c>
+      <c r="F26">
+        <v>-0.03120371807463418</v>
+      </c>
+      <c r="G26">
+        <v>-0.009868638427786038</v>
+      </c>
+      <c r="H26">
+        <v>0.05087949938008535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05557903523255707</v>
+        <v>0.06343044356861116</v>
       </c>
       <c r="C28">
-        <v>-0.0692029728250757</v>
+        <v>0.09244155486260881</v>
       </c>
       <c r="D28">
-        <v>0.3095167701075411</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3045416437546836</v>
+      </c>
+      <c r="E28">
+        <v>0.03167623947760362</v>
+      </c>
+      <c r="F28">
+        <v>-0.05664690887466117</v>
+      </c>
+      <c r="G28">
+        <v>0.03564012169736528</v>
+      </c>
+      <c r="H28">
+        <v>-0.04631442576233537</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04204444660722825</v>
+        <v>0.04890485477693614</v>
       </c>
       <c r="C29">
-        <v>-0.02905837774006157</v>
+        <v>0.02615704080328741</v>
       </c>
       <c r="D29">
-        <v>-0.01155897935955992</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009191612545085354</v>
+      </c>
+      <c r="E29">
+        <v>0.06074710033691777</v>
+      </c>
+      <c r="F29">
+        <v>-0.01346334645205967</v>
+      </c>
+      <c r="G29">
+        <v>-0.008472275438855929</v>
+      </c>
+      <c r="H29">
+        <v>0.07158173189678298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1283399472974812</v>
+        <v>0.129962510030054</v>
       </c>
       <c r="C30">
-        <v>-0.08644802349994372</v>
+        <v>0.06146222660536937</v>
       </c>
       <c r="D30">
-        <v>-0.09774103915446912</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07130120558480227</v>
+      </c>
+      <c r="E30">
+        <v>0.08313782900776598</v>
+      </c>
+      <c r="F30">
+        <v>-0.0008076588207679521</v>
+      </c>
+      <c r="G30">
+        <v>0.07959115231273563</v>
+      </c>
+      <c r="H30">
+        <v>-0.04423487653834959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04455083173329314</v>
+        <v>0.04871243373497924</v>
       </c>
       <c r="C31">
-        <v>-0.02221174151173552</v>
+        <v>0.01393488224709028</v>
       </c>
       <c r="D31">
-        <v>-0.0239492542818402</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03004962189550975</v>
+      </c>
+      <c r="E31">
+        <v>0.02449037700206723</v>
+      </c>
+      <c r="F31">
+        <v>-0.01269826329891883</v>
+      </c>
+      <c r="G31">
+        <v>-0.02490356248457957</v>
+      </c>
+      <c r="H31">
+        <v>0.06528239508961671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0378855738858239</v>
+        <v>0.0386234048802214</v>
       </c>
       <c r="C32">
-        <v>-0.02543889986792936</v>
+        <v>0.02176967939846564</v>
       </c>
       <c r="D32">
-        <v>-0.02810297843389479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01296926503714393</v>
+      </c>
+      <c r="E32">
+        <v>0.05373401711868499</v>
+      </c>
+      <c r="F32">
+        <v>0.004644080096778753</v>
+      </c>
+      <c r="G32">
+        <v>0.02541243770912758</v>
+      </c>
+      <c r="H32">
+        <v>0.07395661704494375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08433513064003315</v>
+        <v>0.0961160004710359</v>
       </c>
       <c r="C33">
-        <v>-0.0391500835456717</v>
+        <v>0.0253230869783636</v>
       </c>
       <c r="D33">
-        <v>-0.06142052505404044</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04707189443655386</v>
+      </c>
+      <c r="E33">
+        <v>0.01534707913768793</v>
+      </c>
+      <c r="F33">
+        <v>-0.007513365449106477</v>
+      </c>
+      <c r="G33">
+        <v>-0.006863356962647537</v>
+      </c>
+      <c r="H33">
+        <v>0.05948289579699032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05883843423693642</v>
+        <v>0.06380190633458795</v>
       </c>
       <c r="C34">
-        <v>-0.02538944703719939</v>
+        <v>0.01141905349055567</v>
       </c>
       <c r="D34">
-        <v>-0.05784281203683751</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05094571804689176</v>
+      </c>
+      <c r="E34">
+        <v>0.006890816293313327</v>
+      </c>
+      <c r="F34">
+        <v>-0.02028375132664706</v>
+      </c>
+      <c r="G34">
+        <v>-2.814340219708287e-05</v>
+      </c>
+      <c r="H34">
+        <v>0.06604336427282942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03701239127329527</v>
+        <v>0.03938914800025848</v>
       </c>
       <c r="C35">
-        <v>-0.007838769578045772</v>
+        <v>0.003254101453303652</v>
       </c>
       <c r="D35">
-        <v>-0.01774379460944215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01141285074108773</v>
+      </c>
+      <c r="E35">
+        <v>0.02178647943021847</v>
+      </c>
+      <c r="F35">
+        <v>0.01503671652011813</v>
+      </c>
+      <c r="G35">
+        <v>-0.004430501134480298</v>
+      </c>
+      <c r="H35">
+        <v>0.01794466922224278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02286510992688926</v>
+        <v>0.0291216397387711</v>
       </c>
       <c r="C36">
-        <v>-0.01748636903514269</v>
+        <v>0.01514304917003044</v>
       </c>
       <c r="D36">
-        <v>-0.02427880252228087</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0172689961660593</v>
+      </c>
+      <c r="E36">
+        <v>0.03057686486989765</v>
+      </c>
+      <c r="F36">
+        <v>-0.02230723110892883</v>
+      </c>
+      <c r="G36">
+        <v>-0.008609265170545869</v>
+      </c>
+      <c r="H36">
+        <v>0.04507256636642896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04231210802863411</v>
+        <v>0.04463415867586706</v>
       </c>
       <c r="C38">
-        <v>-0.001520881397927572</v>
+        <v>-0.003857619449439842</v>
       </c>
       <c r="D38">
-        <v>-0.01752228464540444</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01811604239192224</v>
+      </c>
+      <c r="E38">
+        <v>0.05163335828308389</v>
+      </c>
+      <c r="F38">
+        <v>0.005121872779018136</v>
+      </c>
+      <c r="G38">
+        <v>0.007899938258724344</v>
+      </c>
+      <c r="H38">
+        <v>0.0367372678415251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09261683767069417</v>
+        <v>0.1008559642574722</v>
       </c>
       <c r="C39">
-        <v>-0.06868671117877094</v>
+        <v>0.04941904996122445</v>
       </c>
       <c r="D39">
-        <v>-0.05483956662676033</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06456887201092912</v>
+      </c>
+      <c r="E39">
+        <v>0.008422288909370215</v>
+      </c>
+      <c r="F39">
+        <v>0.004226554440369095</v>
+      </c>
+      <c r="G39">
+        <v>0.03887016165551476</v>
+      </c>
+      <c r="H39">
+        <v>0.05880255671827277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07941160233902446</v>
+        <v>0.06933585913891172</v>
       </c>
       <c r="C40">
-        <v>-0.03278421038220166</v>
+        <v>0.01167250930677934</v>
       </c>
       <c r="D40">
-        <v>0.004248352432245125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01647418713053123</v>
+      </c>
+      <c r="E40">
+        <v>0.03104999801549092</v>
+      </c>
+      <c r="F40">
+        <v>0.04628911711938892</v>
+      </c>
+      <c r="G40">
+        <v>0.03942582932046452</v>
+      </c>
+      <c r="H40">
+        <v>-0.07965736879226799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04241070259945568</v>
+        <v>0.04422153604265101</v>
       </c>
       <c r="C41">
-        <v>-0.004817595921257595</v>
+        <v>-0.004243772593744424</v>
       </c>
       <c r="D41">
-        <v>-0.03351735725050801</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03383960656750554</v>
+      </c>
+      <c r="E41">
+        <v>0.001595199864321263</v>
+      </c>
+      <c r="F41">
+        <v>0.01531022979361607</v>
+      </c>
+      <c r="G41">
+        <v>0.01199930616029691</v>
+      </c>
+      <c r="H41">
+        <v>0.03999642598935696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0510350104897881</v>
+        <v>0.05925896256421097</v>
       </c>
       <c r="C43">
-        <v>-0.02521463931845271</v>
+        <v>0.0176722551930713</v>
       </c>
       <c r="D43">
-        <v>-0.01628464380620305</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0261620647325244</v>
+      </c>
+      <c r="E43">
+        <v>0.0214204974884522</v>
+      </c>
+      <c r="F43">
+        <v>-0.01332040336482727</v>
+      </c>
+      <c r="G43">
+        <v>-0.02035712149219537</v>
+      </c>
+      <c r="H43">
+        <v>0.0607326230372212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09788259287994244</v>
+        <v>0.097817099991602</v>
       </c>
       <c r="C44">
-        <v>-0.08588441056103822</v>
+        <v>0.06213615874721955</v>
       </c>
       <c r="D44">
-        <v>-0.07806009665805516</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05681917864228822</v>
+      </c>
+      <c r="E44">
+        <v>0.07922515322776154</v>
+      </c>
+      <c r="F44">
+        <v>-0.07171004837133958</v>
+      </c>
+      <c r="G44">
+        <v>0.03163355155921858</v>
+      </c>
+      <c r="H44">
+        <v>0.04363718928839421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02589544943292976</v>
+        <v>0.03465836866873651</v>
       </c>
       <c r="C46">
-        <v>-0.01531697061989941</v>
+        <v>0.01225501797778011</v>
       </c>
       <c r="D46">
-        <v>-0.02474315619311457</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03411480017896279</v>
+      </c>
+      <c r="E46">
+        <v>0.03358090289736104</v>
+      </c>
+      <c r="F46">
+        <v>-0.01439195004084177</v>
+      </c>
+      <c r="G46">
+        <v>-0.008834085218532631</v>
+      </c>
+      <c r="H46">
+        <v>0.02697576155906967</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03114596493039548</v>
+        <v>0.03877461621728276</v>
       </c>
       <c r="C47">
-        <v>-0.02359618086714387</v>
+        <v>0.01994157408650594</v>
       </c>
       <c r="D47">
-        <v>-0.007414003790919631</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.00706029811620528</v>
+      </c>
+      <c r="E47">
+        <v>0.04458759433705832</v>
+      </c>
+      <c r="F47">
+        <v>-0.01274656485308059</v>
+      </c>
+      <c r="G47">
+        <v>-0.04433974138113843</v>
+      </c>
+      <c r="H47">
+        <v>0.02999089398509207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03384960651958909</v>
+        <v>0.03829895000981205</v>
       </c>
       <c r="C48">
-        <v>-0.01736035310861142</v>
+        <v>0.0106732831878762</v>
       </c>
       <c r="D48">
-        <v>-0.03120001162645189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02020032080609722</v>
+      </c>
+      <c r="E48">
+        <v>0.03905338169188108</v>
+      </c>
+      <c r="F48">
+        <v>-0.008681851103733915</v>
+      </c>
+      <c r="G48">
+        <v>0.01240397424740292</v>
+      </c>
+      <c r="H48">
+        <v>0.03859771311736442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1618126466823229</v>
+        <v>0.1896670595109872</v>
       </c>
       <c r="C49">
-        <v>-0.04874166309501954</v>
+        <v>0.03033590660474822</v>
       </c>
       <c r="D49">
-        <v>0.005106271940345723</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02969478684721675</v>
+      </c>
+      <c r="E49">
+        <v>-0.1576707278701273</v>
+      </c>
+      <c r="F49">
+        <v>-0.05457304902621165</v>
+      </c>
+      <c r="G49">
+        <v>-0.06238220752998657</v>
+      </c>
+      <c r="H49">
+        <v>-0.223358992822962</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03967487514321003</v>
+        <v>0.0458783109639001</v>
       </c>
       <c r="C50">
-        <v>-0.01945721912001771</v>
+        <v>0.01351688682020081</v>
       </c>
       <c r="D50">
-        <v>-0.04096401465254559</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03334405556207224</v>
+      </c>
+      <c r="E50">
+        <v>0.04234210725502087</v>
+      </c>
+      <c r="F50">
+        <v>-0.01477561680645649</v>
+      </c>
+      <c r="G50">
+        <v>-0.02015095414923149</v>
+      </c>
+      <c r="H50">
+        <v>0.06673646400083597</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02817005672883201</v>
+        <v>0.02955037380448624</v>
       </c>
       <c r="C51">
-        <v>-0.009719568076483191</v>
+        <v>0.003396034918558771</v>
       </c>
       <c r="D51">
-        <v>-0.009986964276738668</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01220538447682164</v>
+      </c>
+      <c r="E51">
+        <v>0.0119716999247964</v>
+      </c>
+      <c r="F51">
+        <v>-0.01476409188736967</v>
+      </c>
+      <c r="G51">
+        <v>-0.0001031539100283161</v>
+      </c>
+      <c r="H51">
+        <v>0.0001186120662320619</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1551028321480047</v>
+        <v>0.1626950021745995</v>
       </c>
       <c r="C53">
-        <v>-0.07194667991563665</v>
+        <v>0.05051328781525212</v>
       </c>
       <c r="D53">
-        <v>-0.009363359022264151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02109513927490593</v>
+      </c>
+      <c r="E53">
+        <v>-0.02966662044053769</v>
+      </c>
+      <c r="F53">
+        <v>-0.01238574101779939</v>
+      </c>
+      <c r="G53">
+        <v>-0.02472993089278807</v>
+      </c>
+      <c r="H53">
+        <v>0.1747837761527013</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05729979957441368</v>
+        <v>0.05809220860879524</v>
       </c>
       <c r="C54">
-        <v>-0.02264205068370806</v>
+        <v>0.01282167537063318</v>
       </c>
       <c r="D54">
-        <v>-0.02203874033479984</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01564667502565009</v>
+      </c>
+      <c r="E54">
+        <v>0.04575986311727697</v>
+      </c>
+      <c r="F54">
+        <v>-0.003746294583609896</v>
+      </c>
+      <c r="G54">
+        <v>0.02047743523224307</v>
+      </c>
+      <c r="H54">
+        <v>0.05164205422947095</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1002721049296097</v>
+        <v>0.1043628294868961</v>
       </c>
       <c r="C55">
-        <v>-0.0494348540857064</v>
+        <v>0.03343355662393292</v>
       </c>
       <c r="D55">
-        <v>-0.01873345308292555</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02357750399151009</v>
+      </c>
+      <c r="E55">
+        <v>0.008472355250390003</v>
+      </c>
+      <c r="F55">
+        <v>-0.01297501601579534</v>
+      </c>
+      <c r="G55">
+        <v>-0.01405311949809062</v>
+      </c>
+      <c r="H55">
+        <v>0.156046448384291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1515333785317773</v>
+        <v>0.1617424820992877</v>
       </c>
       <c r="C56">
-        <v>-0.08342118725148499</v>
+        <v>0.06046257481562662</v>
       </c>
       <c r="D56">
-        <v>-0.01872330228254224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02468920297010441</v>
+      </c>
+      <c r="E56">
+        <v>-0.02267392519557707</v>
+      </c>
+      <c r="F56">
+        <v>-0.032132582240003</v>
+      </c>
+      <c r="G56">
+        <v>-0.03952446934184341</v>
+      </c>
+      <c r="H56">
+        <v>0.1763432770171776</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.130234625881346</v>
+        <v>0.100339758969935</v>
       </c>
       <c r="C58">
-        <v>0.00549909111649154</v>
+        <v>-0.04508544446844601</v>
       </c>
       <c r="D58">
-        <v>-0.03107310182061996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03315400917681094</v>
+      </c>
+      <c r="E58">
+        <v>0.1443762717880289</v>
+      </c>
+      <c r="F58">
+        <v>-0.003529448820452098</v>
+      </c>
+      <c r="G58">
+        <v>-0.01859092480354052</v>
+      </c>
+      <c r="H58">
+        <v>-0.1819667283332952</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1253792998577729</v>
+        <v>0.1388556000861466</v>
       </c>
       <c r="C59">
-        <v>-0.07535199274315167</v>
+        <v>0.09846872569108123</v>
       </c>
       <c r="D59">
-        <v>0.3705104654626004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3621585796677244</v>
+      </c>
+      <c r="E59">
+        <v>0.02536938708193643</v>
+      </c>
+      <c r="F59">
+        <v>-0.01078342444130202</v>
+      </c>
+      <c r="G59">
+        <v>-0.01602632429518306</v>
+      </c>
+      <c r="H59">
+        <v>0.0004120491209383599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2066344637424984</v>
+        <v>0.2353709952518068</v>
       </c>
       <c r="C60">
-        <v>-0.08946311945927482</v>
+        <v>0.06221832206006814</v>
       </c>
       <c r="D60">
-        <v>-0.02444236944879102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0439055342275934</v>
+      </c>
+      <c r="E60">
+        <v>-0.1034567312308715</v>
+      </c>
+      <c r="F60">
+        <v>-0.05508651444867824</v>
+      </c>
+      <c r="G60">
+        <v>0.0200602728341351</v>
+      </c>
+      <c r="H60">
+        <v>-0.1509587673318048</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08314915966427651</v>
+        <v>0.08991414110501082</v>
       </c>
       <c r="C61">
-        <v>-0.04933027366292794</v>
+        <v>0.03547126329539663</v>
       </c>
       <c r="D61">
-        <v>-0.0449519321576891</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0423943842815975</v>
+      </c>
+      <c r="E61">
+        <v>0.002394948621036395</v>
+      </c>
+      <c r="F61">
+        <v>-0.002135545600928921</v>
+      </c>
+      <c r="G61">
+        <v>-0.0002428747823657295</v>
+      </c>
+      <c r="H61">
+        <v>0.06649926189830618</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1315374265503709</v>
+        <v>0.138779818504804</v>
       </c>
       <c r="C62">
-        <v>-0.05945943626952603</v>
+        <v>0.03770221671117086</v>
       </c>
       <c r="D62">
-        <v>-0.02043845886669383</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03357289626029056</v>
+      </c>
+      <c r="E62">
+        <v>-0.05746058261797363</v>
+      </c>
+      <c r="F62">
+        <v>-0.01056841541176758</v>
+      </c>
+      <c r="G62">
+        <v>0.003658546876196129</v>
+      </c>
+      <c r="H62">
+        <v>0.1699176965055596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05232990807189909</v>
+        <v>0.05143413618563578</v>
       </c>
       <c r="C63">
-        <v>-0.02324414174440969</v>
+        <v>0.0137689842003821</v>
       </c>
       <c r="D63">
-        <v>-0.02315905488851112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02174054605560155</v>
+      </c>
+      <c r="E63">
+        <v>0.04991703508687499</v>
+      </c>
+      <c r="F63">
+        <v>0.005822791042353541</v>
+      </c>
+      <c r="G63">
+        <v>0.01793894968874311</v>
+      </c>
+      <c r="H63">
+        <v>0.04681511389535747</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1037118546896143</v>
+        <v>0.1073953079814442</v>
       </c>
       <c r="C64">
-        <v>-0.03012619195153645</v>
+        <v>0.01536388512328966</v>
       </c>
       <c r="D64">
-        <v>-0.04132237715157069</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03197379782676311</v>
+      </c>
+      <c r="E64">
+        <v>0.0311773861184764</v>
+      </c>
+      <c r="F64">
+        <v>-0.04134715214418899</v>
+      </c>
+      <c r="G64">
+        <v>0.04637799721351649</v>
+      </c>
+      <c r="H64">
+        <v>0.04771738710376465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1267523767707944</v>
+        <v>0.1273217370615256</v>
       </c>
       <c r="C65">
-        <v>-0.05738559692719282</v>
+        <v>0.03954315942680569</v>
       </c>
       <c r="D65">
-        <v>0.004980010941756377</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.008089417569191584</v>
+      </c>
+      <c r="E65">
+        <v>-0.004080773430273224</v>
+      </c>
+      <c r="F65">
+        <v>-0.05662973308294571</v>
+      </c>
+      <c r="G65">
+        <v>0.06191954696021395</v>
+      </c>
+      <c r="H65">
+        <v>-0.1510264825600328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1482835454243465</v>
+        <v>0.1530242125219868</v>
       </c>
       <c r="C66">
-        <v>-0.0670996138244572</v>
+        <v>0.03873215273856701</v>
       </c>
       <c r="D66">
-        <v>-0.1050559207011804</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09930339681841717</v>
+      </c>
+      <c r="E66">
+        <v>-0.01960972471462115</v>
+      </c>
+      <c r="F66">
+        <v>-0.005714168486265218</v>
+      </c>
+      <c r="G66">
+        <v>0.04155210540388193</v>
+      </c>
+      <c r="H66">
+        <v>0.1253006973933303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07495688737141912</v>
+        <v>0.08494798200204615</v>
       </c>
       <c r="C67">
-        <v>-0.008834753249296046</v>
+        <v>0.001065377898326147</v>
       </c>
       <c r="D67">
-        <v>-0.02158453904196857</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02898439723189951</v>
+      </c>
+      <c r="E67">
+        <v>0.01755281721717844</v>
+      </c>
+      <c r="F67">
+        <v>-0.0200224415173431</v>
+      </c>
+      <c r="G67">
+        <v>-0.01036780862957244</v>
+      </c>
+      <c r="H67">
+        <v>0.03869005962934987</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06115337223129809</v>
+        <v>0.05902618820297546</v>
       </c>
       <c r="C68">
-        <v>-0.04929189344413555</v>
+        <v>0.06867750262300076</v>
       </c>
       <c r="D68">
-        <v>0.2554425587593945</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2669893521263036</v>
+      </c>
+      <c r="E68">
+        <v>0.03868797131419776</v>
+      </c>
+      <c r="F68">
+        <v>-0.01407584782653008</v>
+      </c>
+      <c r="G68">
+        <v>-0.01098532719265756</v>
+      </c>
+      <c r="H68">
+        <v>0.006004338249191953</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05171114794457808</v>
+        <v>0.05298040198528089</v>
       </c>
       <c r="C69">
-        <v>-0.0148907260673748</v>
+        <v>0.004862001640549654</v>
       </c>
       <c r="D69">
-        <v>-0.02263287389365883</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01653002210487402</v>
+      </c>
+      <c r="E69">
+        <v>0.02605237021506197</v>
+      </c>
+      <c r="F69">
+        <v>0.01143866816283043</v>
+      </c>
+      <c r="G69">
+        <v>-0.0225884292408117</v>
+      </c>
+      <c r="H69">
+        <v>0.05207469677495444</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003644617263827539</v>
+        <v>0.0275513142190314</v>
       </c>
       <c r="C70">
-        <v>0.009104599349713499</v>
+        <v>-0.003855042211519133</v>
       </c>
       <c r="D70">
-        <v>0.00633465883489854</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.002343143731283759</v>
+      </c>
+      <c r="E70">
+        <v>-0.02573109787169343</v>
+      </c>
+      <c r="F70">
+        <v>-0.01131216998644921</v>
+      </c>
+      <c r="G70">
+        <v>-0.02129713085647889</v>
+      </c>
+      <c r="H70">
+        <v>-0.02606164231391393</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06016293037854224</v>
+        <v>0.06137474867983452</v>
       </c>
       <c r="C71">
-        <v>-0.04909658235211907</v>
+        <v>0.07417255823749616</v>
       </c>
       <c r="D71">
-        <v>0.2923585923465976</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.292468969998825</v>
+      </c>
+      <c r="E71">
+        <v>0.03411726565778021</v>
+      </c>
+      <c r="F71">
+        <v>-0.04317741653861523</v>
+      </c>
+      <c r="G71">
+        <v>-0.001301583443910279</v>
+      </c>
+      <c r="H71">
+        <v>0.008558733577230708</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1423824493984422</v>
+        <v>0.1446651832359285</v>
       </c>
       <c r="C72">
-        <v>-0.05807550796704578</v>
+        <v>0.03300128271067636</v>
       </c>
       <c r="D72">
-        <v>-0.006048674531292468</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.001911035129993966</v>
+      </c>
+      <c r="E72">
+        <v>-0.07766888195985257</v>
+      </c>
+      <c r="F72">
+        <v>0.169048012028226</v>
+      </c>
+      <c r="G72">
+        <v>0.1174251983992381</v>
+      </c>
+      <c r="H72">
+        <v>0.01612086284655838</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2844277642491163</v>
+        <v>0.288652140869258</v>
       </c>
       <c r="C73">
-        <v>-0.09306934611825336</v>
+        <v>0.03592469351007723</v>
       </c>
       <c r="D73">
-        <v>-0.05213128413648974</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09340724545490713</v>
+      </c>
+      <c r="E73">
+        <v>-0.2209134284026264</v>
+      </c>
+      <c r="F73">
+        <v>-0.08605114942347632</v>
+      </c>
+      <c r="G73">
+        <v>-0.1367066646511597</v>
+      </c>
+      <c r="H73">
+        <v>-0.4932029253756786</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08169841032875327</v>
+        <v>0.09149473486070507</v>
       </c>
       <c r="C74">
-        <v>-0.07467326800610222</v>
+        <v>0.05951621401633622</v>
       </c>
       <c r="D74">
-        <v>-0.009963904407786189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0322172536017907</v>
+      </c>
+      <c r="E74">
+        <v>-0.00304204074134415</v>
+      </c>
+      <c r="F74">
+        <v>0.0004826797084436951</v>
+      </c>
+      <c r="G74">
+        <v>-0.05290859122068767</v>
+      </c>
+      <c r="H74">
+        <v>0.1155877106217847</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09693977192557846</v>
+        <v>0.1017760443570939</v>
       </c>
       <c r="C75">
-        <v>-0.04744704959063632</v>
+        <v>0.02672743370146445</v>
       </c>
       <c r="D75">
-        <v>-0.008836540659600156</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01580893241452101</v>
+      </c>
+      <c r="E75">
+        <v>0.001229209946139492</v>
+      </c>
+      <c r="F75">
+        <v>-0.02080771865070628</v>
+      </c>
+      <c r="G75">
+        <v>-0.02808634943641713</v>
+      </c>
+      <c r="H75">
+        <v>0.10599201172205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1322148334816836</v>
+        <v>0.1427442486397978</v>
       </c>
       <c r="C76">
-        <v>-0.07805190425844648</v>
+        <v>0.0572670445610771</v>
       </c>
       <c r="D76">
-        <v>-0.043506343778594</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04706468661872012</v>
+      </c>
+      <c r="E76">
+        <v>0.01520684185591722</v>
+      </c>
+      <c r="F76">
+        <v>-0.04933752266051084</v>
+      </c>
+      <c r="G76">
+        <v>-0.02266928572420149</v>
+      </c>
+      <c r="H76">
+        <v>0.1996794858365842</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1183054992085267</v>
+        <v>0.1073942413073222</v>
       </c>
       <c r="C77">
-        <v>-0.007729703286236873</v>
+        <v>-0.01923333487294673</v>
       </c>
       <c r="D77">
-        <v>-0.07121983047625399</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02842439446415576</v>
+      </c>
+      <c r="E77">
+        <v>0.01576372236068946</v>
+      </c>
+      <c r="F77">
+        <v>-0.1090233519360516</v>
+      </c>
+      <c r="G77">
+        <v>0.8924721546701661</v>
+      </c>
+      <c r="H77">
+        <v>-0.09746157783321255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1062469177904748</v>
+        <v>0.1444874554204158</v>
       </c>
       <c r="C78">
-        <v>-0.03487781538911616</v>
+        <v>0.03049190573662901</v>
       </c>
       <c r="D78">
-        <v>-0.08650843385523756</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08246449083306255</v>
+      </c>
+      <c r="E78">
+        <v>0.05566745805349125</v>
+      </c>
+      <c r="F78">
+        <v>-0.0565543422850375</v>
+      </c>
+      <c r="G78">
+        <v>0.08278913515106394</v>
+      </c>
+      <c r="H78">
+        <v>-0.02027132289263463</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1489165903839118</v>
+        <v>0.1516153582594091</v>
       </c>
       <c r="C79">
-        <v>-0.06700889602666504</v>
+        <v>0.03939470894454642</v>
       </c>
       <c r="D79">
-        <v>-0.02415617818861833</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02777011204764259</v>
+      </c>
+      <c r="E79">
+        <v>-0.01768931410111583</v>
+      </c>
+      <c r="F79">
+        <v>-0.0216468965466808</v>
+      </c>
+      <c r="G79">
+        <v>-0.04565071780128505</v>
+      </c>
+      <c r="H79">
+        <v>0.1583928164903823</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04212252178853669</v>
+        <v>0.04335490828469134</v>
       </c>
       <c r="C80">
-        <v>-0.01914651861844321</v>
+        <v>0.01390568017131897</v>
       </c>
       <c r="D80">
-        <v>-0.02717158764933901</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01169420859130422</v>
+      </c>
+      <c r="E80">
+        <v>-0.03144197066093365</v>
+      </c>
+      <c r="F80">
+        <v>-0.006921660465087008</v>
+      </c>
+      <c r="G80">
+        <v>-0.02522112475303834</v>
+      </c>
+      <c r="H80">
+        <v>0.03963033174446393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1191198263840605</v>
+        <v>0.1210042612097388</v>
       </c>
       <c r="C81">
-        <v>-0.05895029563120591</v>
+        <v>0.03651705162791639</v>
       </c>
       <c r="D81">
-        <v>-0.03099295795053668</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02439596352958004</v>
+      </c>
+      <c r="E81">
+        <v>0.006801780183472471</v>
+      </c>
+      <c r="F81">
+        <v>-0.02041714610335051</v>
+      </c>
+      <c r="G81">
+        <v>-0.06234651257742178</v>
+      </c>
+      <c r="H81">
+        <v>0.1449231887726223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1306134041113551</v>
+        <v>0.1315112847914808</v>
       </c>
       <c r="C82">
-        <v>-0.07145252704962428</v>
+        <v>0.04970477027747518</v>
       </c>
       <c r="D82">
-        <v>-0.01870780486092743</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02957739611723245</v>
+      </c>
+      <c r="E82">
+        <v>-0.02108469498147748</v>
+      </c>
+      <c r="F82">
+        <v>-0.04805929410693023</v>
+      </c>
+      <c r="G82">
+        <v>-0.05591741872401569</v>
+      </c>
+      <c r="H82">
+        <v>0.2040676035048021</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07419552435203612</v>
+        <v>0.08484113777273865</v>
       </c>
       <c r="C83">
-        <v>0.01898215670319451</v>
+        <v>-0.03189038814719012</v>
       </c>
       <c r="D83">
-        <v>-0.02319248950718148</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03103631054693404</v>
+      </c>
+      <c r="E83">
+        <v>0.02310360047637597</v>
+      </c>
+      <c r="F83">
+        <v>-0.05426129391458198</v>
+      </c>
+      <c r="G83">
+        <v>-0.07567719363725212</v>
+      </c>
+      <c r="H83">
+        <v>-0.0394371870759449</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02968277834511749</v>
+        <v>0.03691332231105678</v>
       </c>
       <c r="C84">
-        <v>-0.02754781703514922</v>
+        <v>0.02208077477379066</v>
       </c>
       <c r="D84">
-        <v>-0.02463523330113329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03257734843780997</v>
+      </c>
+      <c r="E84">
+        <v>0.02980748188223555</v>
+      </c>
+      <c r="F84">
+        <v>0.05438812872296242</v>
+      </c>
+      <c r="G84">
+        <v>-0.06406929865493366</v>
+      </c>
+      <c r="H84">
+        <v>0.006610459611998343</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.120931179841234</v>
+        <v>0.1229196196809463</v>
       </c>
       <c r="C85">
-        <v>-0.04625813372901037</v>
+        <v>0.0245238334226518</v>
       </c>
       <c r="D85">
-        <v>-0.02661022664544549</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02390685856281305</v>
+      </c>
+      <c r="E85">
+        <v>0.01803827906277278</v>
+      </c>
+      <c r="F85">
+        <v>-0.04710078330040574</v>
+      </c>
+      <c r="G85">
+        <v>-0.04284475742475299</v>
+      </c>
+      <c r="H85">
+        <v>0.1536503675200183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05439343568648099</v>
+        <v>0.0583202415029452</v>
       </c>
       <c r="C86">
-        <v>-0.02021274049878652</v>
+        <v>0.01030624253378353</v>
       </c>
       <c r="D86">
-        <v>-0.03480841145980228</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03147536520095655</v>
+      </c>
+      <c r="E86">
+        <v>0.05524565469897685</v>
+      </c>
+      <c r="F86">
+        <v>-0.02777391774119933</v>
+      </c>
+      <c r="G86">
+        <v>-0.0276440211452954</v>
+      </c>
+      <c r="H86">
+        <v>-0.0118374725276477</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1189546915930482</v>
+        <v>0.122562472457584</v>
       </c>
       <c r="C87">
-        <v>-0.06327964115197127</v>
+        <v>0.03265084199199418</v>
       </c>
       <c r="D87">
-        <v>-0.07684244353287675</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07229717874643289</v>
+      </c>
+      <c r="E87">
+        <v>0.01457032224240088</v>
+      </c>
+      <c r="F87">
+        <v>-0.01098843951813285</v>
+      </c>
+      <c r="G87">
+        <v>0.1384468329297075</v>
+      </c>
+      <c r="H87">
+        <v>-0.02854819717673888</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05345555837723048</v>
+        <v>0.0611763043265105</v>
       </c>
       <c r="C88">
-        <v>-0.02871160454496854</v>
+        <v>0.01993486734697195</v>
       </c>
       <c r="D88">
-        <v>-0.02205111847433619</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03506840938383298</v>
+      </c>
+      <c r="E88">
+        <v>0.01510975614251901</v>
+      </c>
+      <c r="F88">
+        <v>-0.01042850646930459</v>
+      </c>
+      <c r="G88">
+        <v>0.002238595772105429</v>
+      </c>
+      <c r="H88">
+        <v>0.05219782014823662</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09098718190301847</v>
+        <v>0.09724315589911896</v>
       </c>
       <c r="C89">
-        <v>-0.07111041465680293</v>
+        <v>0.09768257357547194</v>
       </c>
       <c r="D89">
-        <v>0.3308960320646192</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.348066450698152</v>
+      </c>
+      <c r="E89">
+        <v>0.07050053687145498</v>
+      </c>
+      <c r="F89">
+        <v>-0.08033161767084186</v>
+      </c>
+      <c r="G89">
+        <v>-0.02051410902580403</v>
+      </c>
+      <c r="H89">
+        <v>0.009672888739456051</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07670629216602502</v>
+        <v>0.07936155358075032</v>
       </c>
       <c r="C90">
-        <v>-0.05874358542097136</v>
+        <v>0.08022831133206471</v>
       </c>
       <c r="D90">
-        <v>0.311028980471767</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3022743687384244</v>
+      </c>
+      <c r="E90">
+        <v>0.06753104951977781</v>
+      </c>
+      <c r="F90">
+        <v>-0.004740495459990964</v>
+      </c>
+      <c r="G90">
+        <v>-0.001673500064139269</v>
+      </c>
+      <c r="H90">
+        <v>0.00684995075635725</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08880307464034677</v>
+        <v>0.09097315214200954</v>
       </c>
       <c r="C91">
-        <v>-0.05054676923046693</v>
+        <v>0.03061341045012235</v>
       </c>
       <c r="D91">
-        <v>-0.02676165160740121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03258214937720173</v>
+      </c>
+      <c r="E91">
+        <v>0.006559159419093663</v>
+      </c>
+      <c r="F91">
+        <v>-0.003112360692231894</v>
+      </c>
+      <c r="G91">
+        <v>-0.05129725042697652</v>
+      </c>
+      <c r="H91">
+        <v>0.07999923494974272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07753789611962236</v>
+        <v>0.07981663413488072</v>
       </c>
       <c r="C92">
-        <v>-0.07411657587851933</v>
+        <v>0.09968487124009028</v>
       </c>
       <c r="D92">
-        <v>0.3358819310632081</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3401550783609859</v>
+      </c>
+      <c r="E92">
+        <v>0.03820788462740526</v>
+      </c>
+      <c r="F92">
+        <v>-0.04288885514779491</v>
+      </c>
+      <c r="G92">
+        <v>0.01757598494825304</v>
+      </c>
+      <c r="H92">
+        <v>0.01820733783130589</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06837043857756007</v>
+        <v>0.07611597819594609</v>
       </c>
       <c r="C93">
-        <v>-0.06539248023321423</v>
+        <v>0.09301080628292685</v>
       </c>
       <c r="D93">
-        <v>0.3070339249685725</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3029860194070966</v>
+      </c>
+      <c r="E93">
+        <v>0.02215240410487567</v>
+      </c>
+      <c r="F93">
+        <v>-0.03421950878431334</v>
+      </c>
+      <c r="G93">
+        <v>0.01840556376010019</v>
+      </c>
+      <c r="H93">
+        <v>-0.01252040080408084</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1353133704680366</v>
+        <v>0.1292826704329471</v>
       </c>
       <c r="C94">
-        <v>-0.04404080341949347</v>
+        <v>0.01391672301084815</v>
       </c>
       <c r="D94">
-        <v>-0.04112689360402137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04676112296916621</v>
+      </c>
+      <c r="E94">
+        <v>-0.01848729986178151</v>
+      </c>
+      <c r="F94">
+        <v>-0.0124869227193443</v>
+      </c>
+      <c r="G94">
+        <v>-0.06656726693819429</v>
+      </c>
+      <c r="H94">
+        <v>0.09557359665047853</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.124519321976307</v>
+        <v>0.1287955096327395</v>
       </c>
       <c r="C95">
-        <v>-0.0265850225705294</v>
+        <v>-0.000238770349010844</v>
       </c>
       <c r="D95">
-        <v>-0.05704868848806789</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06543373374215704</v>
+      </c>
+      <c r="E95">
+        <v>0.007071066013380624</v>
+      </c>
+      <c r="F95">
+        <v>-0.03286159775253841</v>
+      </c>
+      <c r="G95">
+        <v>0.01508574731073541</v>
+      </c>
+      <c r="H95">
+        <v>-0.05102993294427743</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2203798344830424</v>
+        <v>0.2038249005282713</v>
       </c>
       <c r="C97">
-        <v>-0.04037885231266041</v>
+        <v>-0.00267700427667328</v>
       </c>
       <c r="D97">
-        <v>0.1015521198821493</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.07683875483301957</v>
+      </c>
+      <c r="E97">
+        <v>-0.1711621916711019</v>
+      </c>
+      <c r="F97">
+        <v>0.9114600587880854</v>
+      </c>
+      <c r="G97">
+        <v>0.07857099491877473</v>
+      </c>
+      <c r="H97">
+        <v>0.01998042257347657</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2491686980667053</v>
+        <v>0.2763224993830612</v>
       </c>
       <c r="C98">
-        <v>-0.05882238064897067</v>
+        <v>0.02327593269869433</v>
       </c>
       <c r="D98">
-        <v>-0.03643635498443833</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05133487214759743</v>
+      </c>
+      <c r="E98">
+        <v>-0.1913214548000756</v>
+      </c>
+      <c r="F98">
+        <v>-0.05403818123671045</v>
+      </c>
+      <c r="G98">
+        <v>-0.229556441934833</v>
+      </c>
+      <c r="H98">
+        <v>-0.2926475042911952</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.401092404801515</v>
+        <v>0.2717293107272813</v>
       </c>
       <c r="C99">
-        <v>0.8982482419159075</v>
+        <v>-0.9294011295531505</v>
       </c>
       <c r="D99">
-        <v>0.05682223468105153</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1697906633873257</v>
+      </c>
+      <c r="E99">
+        <v>0.07032352409327265</v>
+      </c>
+      <c r="F99">
+        <v>-0.05918779878634673</v>
+      </c>
+      <c r="G99">
+        <v>-0.02570523375436678</v>
+      </c>
+      <c r="H99">
+        <v>0.07175443956486863</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04188401408974576</v>
+        <v>0.04883697717269432</v>
       </c>
       <c r="C101">
-        <v>-0.02918983801054274</v>
+        <v>0.02640005682899611</v>
       </c>
       <c r="D101">
-        <v>-0.01218831983804045</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009365356228094701</v>
+      </c>
+      <c r="E101">
+        <v>0.06071898923317449</v>
+      </c>
+      <c r="F101">
+        <v>-0.01314314808892557</v>
+      </c>
+      <c r="G101">
+        <v>-0.008853942212311651</v>
+      </c>
+      <c r="H101">
+        <v>0.07043546169160152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
